--- a/AICc_results.xlsx
+++ b/AICc_results.xlsx
@@ -1,104 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab2e5f5755ca0289/Documents/GitHub/research-project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_0F7DFDCE8F79A8D366075C52F3470AF1BA34BC18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35DD77EE-6221-4D64-BE94-57BCBA7D8A45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>Psi</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>npar</t>
-  </si>
-  <si>
-    <t>AICc</t>
-  </si>
-  <si>
-    <t>DeltaAICc</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>Deviance</t>
-  </si>
-  <si>
-    <t>~stratum + time</t>
-  </si>
-  <si>
-    <t>~time + ageclass</t>
-  </si>
-  <si>
-    <t>S(~stratum + time)p(~stratum + time)Psi(~time + ageclass)</t>
-  </si>
-  <si>
-    <t>~ageclass</t>
-  </si>
-  <si>
-    <t>S(~stratum + time)p(~stratum + time)Psi(~ageclass)</t>
-  </si>
-  <si>
-    <t>~I(stratum == "1") * ageclass2 + I(stratum == "2") * time</t>
-  </si>
-  <si>
-    <t>S(~I(stratum == "1") * ageclass2 + I(stratum == "2") * time)p(~stratum + time)Psi(~ageclass)</t>
-  </si>
-  <si>
-    <t>~stratum</t>
-  </si>
-  <si>
-    <t>~1</t>
-  </si>
-  <si>
-    <t>S(~stratum)p(~stratum)Psi(~1)</t>
-  </si>
-  <si>
-    <t>~stratum * time</t>
-  </si>
-  <si>
-    <t>~time</t>
-  </si>
-  <si>
-    <t>S(~stratum * time)p(~stratum * time)Psi(~time)</t>
-  </si>
-  <si>
-    <t>~I(stratum == "1") * (ageclass2 + time) + I(stratum == "2") * time</t>
-  </si>
-  <si>
-    <t>S(~I(stratum == "1") * (ageclass2 + time) + I(stratum == "2") * time)p(~stratum + time)Psi(~ageclass)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -232,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -267,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,219 +350,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="95.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Psi</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>npar</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AICc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DeltaAICc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Deviance</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>~stratum + time</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>~stratum + time</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>~ageclass</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S(~stratum + time)p(~stratum + time)Psi(~ageclass)</t>
+        </is>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>4770.1052934579438</v>
+        <v>4778.553731365313</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.98539760766045947</v>
+        <v>0.9981828573533046</v>
       </c>
       <c r="I2">
-        <v>2964.7716</v>
+        <v>3018.4536</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>~I(stratum == "1") * ageclass2 + I(stratum == "2") * time</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>~stratum + time</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>~ageclass</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S(~I(stratum == "1") * ageclass2 + I(stratum == "2") * time)p(~stratum + time)Psi(~ageclass)</t>
+        </is>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>4778.5537313653131</v>
+        <v>4791.171449656465</v>
       </c>
       <c r="G3">
-        <v>8.4484379073692253</v>
+        <v>12.6177182911515</v>
       </c>
       <c r="H3">
-        <v>1.44230304907695E-2</v>
+        <v>0.001816801137215371</v>
       </c>
       <c r="I3">
-        <v>3018.4535999999998</v>
+        <v>2977.0872</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>~stratum</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>~stratum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S(~stratum)p(~stratum)Psi(~1)</t>
+        </is>
       </c>
       <c r="E4">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>4787.3281389513113</v>
+        <v>4808.330206642729</v>
       </c>
       <c r="G4">
-        <v>17.222845493367458</v>
+        <v>29.77647527741556</v>
       </c>
       <c r="H4">
-        <v>1.7935691419088411E-4</v>
+        <v>3.414527818653755E-07</v>
       </c>
       <c r="I4">
-        <v>2975.4357</v>
+        <v>3141.3307</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>~stratum * time</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>~stratum * time</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>~time</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S(~stratum * time)p(~stratum * time)Psi(~time)</t>
+        </is>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="F5">
-        <v>4808.3302066427286</v>
+        <v>4825.741369731801</v>
       </c>
       <c r="G5">
-        <v>38.224913184784782</v>
+        <v>47.18763836648759</v>
       </c>
       <c r="H5">
-        <v>4.9337492101001482E-9</v>
+        <v>5.656458807554895E-11</v>
       </c>
       <c r="I5">
-        <v>3141.3307</v>
+        <v>2933.1839</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>~I(stratum == "1") * (ageclass2 + time) + I(stratum == "2") * time</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>~stratum + time</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>~ageclass</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S(~I(stratum == "1") * (ageclass2 + time) + I(stratum == "2") * time)p(~stratum + time)Psi(~ageclass)</t>
+        </is>
       </c>
       <c r="E6">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F6">
-        <v>4825.7413697318007</v>
+        <v>4837.838241772152</v>
       </c>
       <c r="G6">
-        <v>55.636076273856823</v>
+        <v>59.28451040683922</v>
       </c>
       <c r="H6">
-        <v>8.1731796183582115E-13</v>
+        <v>1.33580246661093E-13</v>
       </c>
       <c r="I6">
-        <v>2933.1839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>95</v>
-      </c>
-      <c r="F7">
-        <v>4833.9363018975337</v>
-      </c>
-      <c r="G7">
-        <v>63.831008439589823</v>
-      </c>
-      <c r="H7">
-        <v>1.357951107889229E-14</v>
-      </c>
-      <c r="I7">
-        <v>2975.4357</v>
+        <v>2977.0872</v>
       </c>
     </row>
   </sheetData>

--- a/AICc_results.xlsx
+++ b/AICc_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,14 +407,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~I(stratum == "1") * ageclass2 + I(stratum == "2")</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~stratum + time</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~stratum + time</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>~ageclass</t>
@@ -422,29 +422,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S(~stratum + time)p(~stratum + time)Psi(~ageclass)</t>
+          <t>S(~I(stratum == "1") * ageclass2 + I(stratum == "2"))p(~stratum + time)Psi(~ageclass)</t>
         </is>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>4778.553731365313</v>
+        <v>4721.714094278758</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9981828573533046</v>
+        <v>0.9998365997711501</v>
       </c>
       <c r="I2">
-        <v>3018.4536</v>
+        <v>2997.3846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>~I(stratum == "1") * ageclass2 + I(stratum == "2") * time</t>
+          <t>~stratum</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -459,103 +459,103 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>S(~I(stratum == "1") * ageclass2 + I(stratum == "2") * time)p(~stratum + time)Psi(~ageclass)</t>
+          <t>S(~stratum)p(~stratum + time)Psi(~ageclass)</t>
         </is>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>4791.171449656465</v>
+        <v>4739.152466302367</v>
       </c>
       <c r="G3">
-        <v>12.6177182911515</v>
+        <v>17.43837202360919</v>
       </c>
       <c r="H3">
-        <v>0.001816801137215371</v>
+        <v>0.0001633934559861514</v>
       </c>
       <c r="I3">
-        <v>2977.0872</v>
+        <v>3023.1323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>~stratum</t>
+          <t>~stratum + time</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~stratum</t>
+          <t>~stratum + time</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~ageclass</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>S(~stratum)p(~stratum)Psi(~1)</t>
+          <t>S(~stratum + time)p(~stratum + time)Psi(~ageclass)</t>
         </is>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>4808.330206642729</v>
+        <v>4759.370931365313</v>
       </c>
       <c r="G4">
-        <v>29.77647527741556</v>
+        <v>37.65683708655524</v>
       </c>
       <c r="H4">
-        <v>3.414527818653755E-07</v>
+        <v>6.650445733986609E-09</v>
       </c>
       <c r="I4">
-        <v>3141.3307</v>
+        <v>2999.2708</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>~stratum * time</t>
+          <t>~stratum * time + I(stratum == "1") * (ageclass2)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~stratum * time</t>
+          <t>~stratum + time</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~ageclass</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S(~stratum * time)p(~stratum * time)Psi(~time)</t>
+          <t>S(~stratum * time + I(stratum == "1") * (ageclass2))p(~stratum + time)Psi(~ageclass)</t>
         </is>
       </c>
       <c r="E5">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F5">
-        <v>4825.741369731801</v>
+        <v>4767.366549656464</v>
       </c>
       <c r="G5">
-        <v>47.18763836648759</v>
+        <v>45.65245537770625</v>
       </c>
       <c r="H5">
-        <v>5.656458807554895E-11</v>
+        <v>1.220743168149824E-10</v>
       </c>
       <c r="I5">
-        <v>2933.1839</v>
+        <v>2953.2824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>~I(stratum == "1") * (ageclass2 + time) + I(stratum == "2") * time</t>
+          <t>~stratum * time</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -570,23 +570,208 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>S(~I(stratum == "1") * (ageclass2 + time) + I(stratum == "2") * time)p(~stratum + time)Psi(~ageclass)</t>
+          <t>S(~stratum * time)p(~stratum + time)Psi(~ageclass)</t>
         </is>
       </c>
       <c r="E6">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F6">
-        <v>4837.838241772152</v>
+        <v>4779.185293457944</v>
       </c>
       <c r="G6">
-        <v>59.28451040683922</v>
+        <v>57.47119917918553</v>
       </c>
       <c r="H6">
-        <v>1.33580246661093E-13</v>
+        <v>3.312963830294484E-13</v>
       </c>
       <c r="I6">
-        <v>2977.0872</v>
+        <v>2973.8516</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>~stratum * time + I(stratum == "1") * (ageclass2)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>~stratum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>~ageclass</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S(~stratum * time + I(stratum == "1") * (ageclass2))p(~stratum)Psi(~ageclass)</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>4786.174745499384</v>
+      </c>
+      <c r="G7">
+        <v>64.46065122062555</v>
+      </c>
+      <c r="H7">
+        <v>1.005718566957698E-14</v>
+      </c>
+      <c r="I7">
+        <v>3017.549</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>~stratum</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>~stratum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>~ageclass</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S(~stratum)p(~stratum)Psi(~ageclass)</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>4789.091130935251</v>
+      </c>
+      <c r="G8">
+        <v>67.37703665649315</v>
+      </c>
+      <c r="H8">
+        <v>2.339868317196994E-15</v>
+      </c>
+      <c r="I8">
+        <v>3116.0412</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>~stratum</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>~stratum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S(~stratum)p(~stratum)Psi(~1)</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4808.330206642729</v>
+      </c>
+      <c r="G9">
+        <v>86.61611236397039</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>3141.3307</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>~stratum * time</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>~stratum * time</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>~time</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>S(~stratum * time)p(~stratum * time)Psi(~time)</t>
+        </is>
+      </c>
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>4825.741369731801</v>
+      </c>
+      <c r="G10">
+        <v>104.0272754530424</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2933.1839</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>~I(stratum == "1") * (ageclass2 * time) + I(stratum == "2") * time</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>~stratum + time</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>~ageclass</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S(~I(stratum == "1") * (ageclass2 * time) + I(stratum == "2") * time)p(~stratum + time)Psi(~ageclass)</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>159</v>
+      </c>
+      <c r="F11">
+        <v>4941.061581344759</v>
+      </c>
+      <c r="G11">
+        <v>219.3474870660011</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2932.5581</v>
       </c>
     </row>
   </sheetData>
